--- a/Analyzed/try2/data_2018.xlsx
+++ b/Analyzed/try2/data_2018.xlsx
@@ -541,13 +541,13 @@
         <v>1715.929</v>
       </c>
       <c r="L2">
-        <v>83.60000000000001</v>
+        <v>2926</v>
       </c>
       <c r="M2">
         <v>65.35177686827733</v>
       </c>
       <c r="N2">
-        <v>-50.08000000000001</v>
+        <v>-1452.32</v>
       </c>
       <c r="O2">
         <v>1140.67</v>
@@ -580,10 +580,10 @@
         <v>3</v>
       </c>
       <c r="Y2">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="Z2">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AA2">
         <v>0</v>
@@ -592,7 +592,7 @@
         <v>8</v>
       </c>
       <c r="AC2">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3">
@@ -632,13 +632,13 @@
         <v>2261.836</v>
       </c>
       <c r="L3">
-        <v>95</v>
+        <v>3325</v>
       </c>
       <c r="M3">
         <v>67.08133248144736</v>
       </c>
       <c r="N3">
-        <v>-50.06</v>
+        <v>-1451.74</v>
       </c>
       <c r="O3">
         <v>1192.39</v>
@@ -671,10 +671,10 @@
         <v>2</v>
       </c>
       <c r="Y3">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="Z3">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AA3">
         <v>0</v>
@@ -723,13 +723,13 @@
         <v>1270.727</v>
       </c>
       <c r="L4">
-        <v>69.60000000000001</v>
+        <v>2436</v>
       </c>
       <c r="M4">
         <v>65.01675829837771</v>
       </c>
       <c r="N4">
-        <v>43.2</v>
+        <v>1252.8</v>
       </c>
       <c r="O4">
         <v>1180.08</v>
@@ -762,7 +762,7 @@
         <v>1</v>
       </c>
       <c r="Y4">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="Z4">
         <v>2</v>
@@ -774,7 +774,7 @@
         <v>0</v>
       </c>
       <c r="AC4">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="5">
@@ -814,13 +814,13 @@
         <v>1730.833</v>
       </c>
       <c r="L5">
-        <v>83.7</v>
+        <v>2929.5</v>
       </c>
       <c r="M5">
         <v>66.87736066504979</v>
       </c>
       <c r="N5">
-        <v>8.230000000000004</v>
+        <v>238.6700000000001</v>
       </c>
       <c r="O5">
         <v>1114.62</v>
@@ -853,10 +853,10 @@
         <v>3</v>
       </c>
       <c r="Y5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="Z5">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AA5">
         <v>0</v>
@@ -865,7 +865,7 @@
         <v>3</v>
       </c>
       <c r="AC5">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6">
@@ -905,13 +905,13 @@
         <v>1215.325</v>
       </c>
       <c r="L6">
-        <v>87.30000000000001</v>
+        <v>3055.5</v>
       </c>
       <c r="M6">
         <v>65.96919832778117</v>
       </c>
       <c r="N6">
-        <v>40.85</v>
+        <v>1184.65</v>
       </c>
       <c r="O6">
         <v>1060.46</v>
@@ -947,7 +947,7 @@
         <v>4</v>
       </c>
       <c r="Z6">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AA6">
         <v>0</v>
@@ -956,7 +956,7 @@
         <v>4</v>
       </c>
       <c r="AC6">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="7">
@@ -996,13 +996,13 @@
         <v>1153.503</v>
       </c>
       <c r="L7">
-        <v>77.7</v>
+        <v>2719.5</v>
       </c>
       <c r="M7">
         <v>68.35054421162928</v>
       </c>
       <c r="N7">
-        <v>30.39</v>
+        <v>881.3099999999999</v>
       </c>
       <c r="O7">
         <v>1118.43</v>
@@ -1035,10 +1035,10 @@
         <v>1</v>
       </c>
       <c r="Y7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA7">
         <v>1</v>
@@ -1047,7 +1047,7 @@
         <v>0</v>
       </c>
       <c r="AC7">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="8">
@@ -1087,13 +1087,13 @@
         <v>1724.513</v>
       </c>
       <c r="L8">
-        <v>82.90000000000001</v>
+        <v>2901.5</v>
       </c>
       <c r="M8">
         <v>60.31774133150206</v>
       </c>
       <c r="N8">
-        <v>25.82000000000001</v>
+        <v>748.7800000000001</v>
       </c>
       <c r="O8">
         <v>1077.55</v>
@@ -1126,10 +1126,10 @@
         <v>6</v>
       </c>
       <c r="Y8">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="Z8">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="AA8">
         <v>4</v>
@@ -1138,7 +1138,7 @@
         <v>3</v>
       </c>
       <c r="AC8">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="9">
@@ -1178,13 +1178,13 @@
         <v>1646.437</v>
       </c>
       <c r="L9">
-        <v>78</v>
+        <v>2730</v>
       </c>
       <c r="M9">
         <v>62.28273497792659</v>
       </c>
       <c r="N9">
-        <v>-33.54</v>
+        <v>-972.6599999999999</v>
       </c>
       <c r="O9">
         <v>1167.19</v>
@@ -1217,10 +1217,10 @@
         <v>0</v>
       </c>
       <c r="Y9">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="Z9">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AA9">
         <v>1</v>
@@ -1229,7 +1229,7 @@
         <v>1</v>
       </c>
       <c r="AC9">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="10">
@@ -1269,13 +1269,13 @@
         <v>696.569</v>
       </c>
       <c r="L10">
-        <v>74.7</v>
+        <v>2614.5</v>
       </c>
       <c r="M10">
         <v>57.86570652522391</v>
       </c>
       <c r="N10">
-        <v>39.2</v>
+        <v>1136.8</v>
       </c>
       <c r="O10">
         <v>1094.35</v>
@@ -1308,7 +1308,7 @@
         <v>3</v>
       </c>
       <c r="Y10">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="Z10">
         <v>6</v>
@@ -1320,7 +1320,7 @@
         <v>7</v>
       </c>
       <c r="AC10">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11">
@@ -1360,13 +1360,13 @@
         <v>945.4730000000001</v>
       </c>
       <c r="L11">
-        <v>68.3</v>
+        <v>2390.5</v>
       </c>
       <c r="M11">
         <v>73.15764082713866</v>
       </c>
       <c r="N11">
-        <v>34.52</v>
+        <v>1001.08</v>
       </c>
       <c r="O11">
         <v>1098.17</v>
@@ -1399,10 +1399,10 @@
         <v>1</v>
       </c>
       <c r="Y11">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="Z11">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="AA11">
         <v>0</v>
